--- a/CP006/Default.xlsx
+++ b/CP006/Default.xlsx
@@ -4,86 +4,112 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Alta_Corpo" sheetId="3" r:id="rId3"/>
-    <sheet name="WIC2" sheetId="4" r:id="rId4"/>
-    <sheet name="Login" sheetId="5" r:id="rId5"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Log_Out" sheetId="3" r:id="rId3"/>
+    <sheet name="A_Comercial" sheetId="4" r:id="rId4"/>
+    <sheet name="WIC" sheetId="5" r:id="rId5"/>
     <sheet name="Buscar_Cliente" sheetId="6" r:id="rId6"/>
-    <sheet name="Log_Out" sheetId="7" r:id="rId7"/>
-    <sheet name="A_Comercial" sheetId="8" r:id="rId8"/>
+    <sheet name="Alta_Corpo" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>s_Resultado</t>
+  </si>
+  <si>
+    <t>e_Plan_Tarifario</t>
+  </si>
+  <si>
+    <t>No Alquiler</t>
+  </si>
+  <si>
+    <t>s_Detalle</t>
+  </si>
+  <si>
+    <t>Postpago</t>
+  </si>
+  <si>
+    <t>e_NumDocumento</t>
+  </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>s_Resultado</t>
-  </si>
-  <si>
-    <t>s_Detalle</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Corporativo-18 cuotas</t>
-  </si>
-  <si>
-    <t>e_NumDocumento</t>
-  </si>
-  <si>
-    <t>20543590127</t>
-  </si>
-  <si>
-    <t>e_Plan_Tarifario</t>
-  </si>
-  <si>
-    <t>No Alquiler</t>
+    <t>s_Inicio_Ejecucion</t>
+  </si>
+  <si>
+    <t>rdiazc</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Operador Virtual</t>
   </si>
   <si>
     <t>e_ID_SIM</t>
   </si>
   <si>
-    <t>Timer</t>
+    <t>e_Ambiente</t>
+  </si>
+  <si>
+    <t>e_Plan_Compartido</t>
+  </si>
+  <si>
+    <t>GOMOBILE GO452 NEGRO</t>
   </si>
   <si>
     <t>s_Nro_Orden</t>
   </si>
   <si>
-    <t>e_Ambiente</t>
-  </si>
-  <si>
-    <t>e_Plan_Compartido</t>
-  </si>
-  <si>
-    <t>ACUERDO COMERCIAL 649</t>
+    <t>Voz</t>
+  </si>
+  <si>
+    <t>e_NumContactoAsociado</t>
   </si>
   <si>
     <t>e_TipoSIM</t>
   </si>
   <si>
-    <t>Voz</t>
+    <t>Externo</t>
+  </si>
+  <si>
+    <t>s_FechaEjecucion</t>
+  </si>
+  <si>
+    <t>e_Usuario</t>
+  </si>
+  <si>
+    <t>e_TipoDocumento</t>
+  </si>
+  <si>
+    <t>e_DocContactoAsociado</t>
+  </si>
+  <si>
+    <t>e_TipoServAdicional</t>
   </si>
   <si>
     <t>e_MedioPago</t>
   </si>
   <si>
-    <t>e_Nacimiento</t>
-  </si>
-  <si>
-    <t>e_Usuario</t>
-  </si>
-  <si>
-    <t>e_TipoDocumento</t>
+    <t>ACUERDO COMERCIAL 242</t>
+  </si>
+  <si>
+    <t>POSTPAGO</t>
+  </si>
+  <si>
+    <t>RUC</t>
   </si>
   <si>
     <t>e_Tipo_Alta</t>
@@ -92,7 +118,7 @@
     <t>e_docuDelivery</t>
   </si>
   <si>
-    <t>RUC</t>
+    <t>e_Grupo_Negocio</t>
   </si>
   <si>
     <t>e_Metodo_Entrega</t>
@@ -104,10 +130,13 @@
     <t>e_ID_Dispositivo</t>
   </si>
   <si>
-    <t>e_Grupo_Negocio</t>
-  </si>
-  <si>
-    <t>e_Descarga_Contrato</t>
+    <t xml:space="preserve">Plan Elige Todo+ S/ 119.90 : </t>
+  </si>
+  <si>
+    <t>e_Dias</t>
+  </si>
+  <si>
+    <t>e_Producto</t>
   </si>
   <si>
     <t>Tienda</t>
@@ -116,25 +145,28 @@
     <t>DATA LOGICA</t>
   </si>
   <si>
-    <t>e_NombrePadre</t>
-  </si>
-  <si>
-    <t>e_Dias</t>
+    <t>8958080008100393575</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>s_Fin_Ejecucion</t>
+  </si>
+  <si>
+    <t>Inicio</t>
   </si>
   <si>
     <t>e_Motivo_Alta</t>
   </si>
   <si>
-    <t>e_PlanFinanciamiento</t>
-  </si>
-  <si>
-    <t>Pago a la Factura</t>
-  </si>
-  <si>
-    <t>Inicio</t>
-  </si>
-  <si>
-    <t>PLAN AHORRO TD S/ 27 C :</t>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>e_Contrato_Corporativo</t>
+  </si>
+  <si>
+    <t>e_ModeloCelular</t>
   </si>
   <si>
     <t>e_WIC_Activa</t>
@@ -146,49 +178,31 @@
     <t>s_Id_Servicio</t>
   </si>
   <si>
-    <t>Fin</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>e_Contrato_Corporativo</t>
-  </si>
-  <si>
-    <t>e_ModeloCelular</t>
-  </si>
-  <si>
-    <t>LA VICTORIA</t>
-  </si>
-  <si>
-    <t>No Financiado</t>
-  </si>
-  <si>
     <t>UAT4</t>
   </si>
   <si>
-    <t>cpontec</t>
-  </si>
-  <si>
     <t>e_Alquiler</t>
   </si>
   <si>
-    <t>e_Nombre_Padre</t>
+    <t>e_Cuotas</t>
+  </si>
+  <si>
+    <t>s_Nro_Pedido</t>
+  </si>
+  <si>
+    <t>e_Tipo</t>
+  </si>
+  <si>
+    <t>e_ServAdicional2</t>
   </si>
   <si>
     <t>e_numDocuDelivery</t>
   </si>
   <si>
-    <t>e_NombreMadre</t>
-  </si>
-  <si>
-    <t>JESUS MARIA</t>
-  </si>
-  <si>
-    <t>ariverar</t>
-  </si>
-  <si>
-    <t>s_Nro_Pedido</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>e_Password</t>
   </si>
   <si>
     <t>NO</t>
@@ -197,61 +211,43 @@
     <t>Alta Nueva Equipo + SIM</t>
   </si>
   <si>
-    <t>8958080008100291753</t>
-  </si>
-  <si>
-    <t>e_Password</t>
-  </si>
-  <si>
-    <t>DOMINGO</t>
-  </si>
-  <si>
     <t>Equipo + SIM</t>
   </si>
   <si>
+    <t>e_ServAdicional</t>
+  </si>
+  <si>
+    <t>e_Financiamiento</t>
+  </si>
+  <si>
     <t>CE</t>
   </si>
   <si>
     <t>e_Cant_Cuota</t>
   </si>
   <si>
-    <t>e_Nombre_Madre</t>
-  </si>
-  <si>
-    <t>ELVIRA</t>
-  </si>
-  <si>
-    <t>e_Lugar_Nacimiento</t>
-  </si>
-  <si>
-    <t>e_Tipo_Financiamiento</t>
+    <t>123900000365000</t>
+  </si>
+  <si>
+    <t>ACUERDO SIN BOLSA</t>
+  </si>
+  <si>
+    <t>e_Operador</t>
   </si>
   <si>
     <t>s_ValEstadoOrden</t>
   </si>
   <si>
-    <t>e_TipoDocCliente</t>
-  </si>
-  <si>
-    <t>SUSANA</t>
-  </si>
-  <si>
-    <t>e_DniContacto</t>
-  </si>
-  <si>
-    <t>ACUERDO SIN BOLSA</t>
-  </si>
-  <si>
-    <t>HUAWEI P10 NEGRO</t>
-  </si>
-  <si>
-    <t>123900000144082</t>
-  </si>
-  <si>
     <t>e_Nombre_Acuerdo</t>
   </si>
   <si>
     <t>Negocio</t>
+  </si>
+  <si>
+    <t>e_NumPorta</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -439,19 +435,19 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -754,18 +750,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
+    <row ht="12.75" customHeight="1" customFormat="1">
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -778,59 +798,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.49609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.03125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>50</v>
-      </c>
-      <c t="s">
-        <v>64</v>
-      </c>
-      <c t="s">
-        <v>66</v>
-      </c>
-      <c t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c t="s">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>22</v>
+      </c>
+      <c t="s">
+        <v>60</v>
       </c>
       <c t="s">
         <v>1</v>
       </c>
       <c t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c t="s">
+        <v>10</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>60</v>
-      </c>
-      <c s="1" t="s">
-        <v>65</v>
-      </c>
-      <c s="1" t="s">
-        <v>45</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1"/>
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>52</v>
+      </c>
+      <c s="1" t="s">
+        <v>9</v>
+      </c>
+      <c s="1" t="s">
+        <v>9</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
       <c s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -845,156 +872,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.96484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>38</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>33</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
-        <v>22</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c t="s">
-        <v>67</v>
-      </c>
-      <c t="s">
-        <v>34</v>
-      </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>68</v>
-      </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>1</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row ht="19.5" customHeight="1" s="2" customFormat="1">
-      <c s="1" t="s">
-        <v>56</v>
-      </c>
-      <c s="1" t="s">
-        <v>57</v>
-      </c>
-      <c s="1" t="s">
-        <v>61</v>
-      </c>
-      <c s="1" t="s">
-        <v>39</v>
-      </c>
-      <c s="1" t="s">
-        <v>29</v>
-      </c>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="1">
-        <v>147934093</v>
-      </c>
-      <c s="1" t="s">
         <v>46</v>
       </c>
-      <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="1" t="s">
-        <v>35</v>
-      </c>
-      <c s="1">
-        <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>30</v>
-      </c>
-      <c s="5" t="s">
-        <v>74</v>
-      </c>
-      <c s="5" t="s">
-        <v>58</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="3" t="s">
-        <v>3</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row>
       <c s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1009,47 +905,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.34375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.83984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.78125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
+        <v>72</v>
+      </c>
+      <c t="s">
+        <v>47</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>48</v>
+      </c>
+      <c t="s">
+        <v>53</v>
+      </c>
+      <c t="s">
+        <v>37</v>
+      </c>
+      <c t="s">
+        <v>32</v>
+      </c>
+      <c t="s">
+        <v>55</v>
+      </c>
+      <c t="s">
+        <v>1</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row>
+      <c s="2" t="s">
         <v>69</v>
       </c>
-      <c t="s">
-        <v>31</v>
-      </c>
-      <c t="s">
-        <v>52</v>
-      </c>
-      <c t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="1" t="s">
-        <v>42</v>
-      </c>
-      <c s="1" t="s">
-        <v>70</v>
+      <c s="2" t="s">
+        <v>73</v>
+      </c>
+      <c s="2" t="s">
+        <v>17</v>
+      </c>
+      <c s="2" t="s">
+        <v>36</v>
+      </c>
+      <c s="2" t="s">
+        <v>15</v>
+      </c>
+      <c s="2" t="s">
+        <v>3</v>
+      </c>
+      <c s="2">
+        <v>12</v>
+      </c>
+      <c s="2" t="s">
+        <v>27</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
       </c>
       <c s="4" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1064,257 +1009,276 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.1484375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>36</v>
-      </c>
-      <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="s">
-        <v>59</v>
-      </c>
-      <c t="s">
-        <v>1</v>
-      </c>
-      <c t="s">
-        <v>41</v>
-      </c>
-      <c t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c t="s">
+        <v>74</v>
+      </c>
+      <c t="s">
+        <v>38</v>
+      </c>
+      <c t="s">
+        <v>70</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="1" t="s">
-        <v>47</v>
-      </c>
-      <c s="1" t="s">
-        <v>54</v>
-      </c>
-      <c s="1" t="s">
-        <v>48</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c s="1">
+        <v>920951680</v>
+      </c>
+      <c s="1" t="s">
+        <v>5</v>
       </c>
       <c s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>20</v>
-      </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>24</v>
+      </c>
+      <c t="s">
+        <v>18</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>23</v>
-      </c>
-      <c s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c s="1">
+        <v>20147720492</v>
+      </c>
+      <c s="1"/>
       <c s="4"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.41015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.3828125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.91015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.79296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.41796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.70703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.66796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.91796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.41796875" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>30</v>
+      </c>
+      <c t="s">
+        <v>45</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="s">
+        <v>25</v>
+      </c>
+      <c t="s">
+        <v>64</v>
+      </c>
+      <c t="s">
+        <v>57</v>
+      </c>
+      <c t="s">
+        <v>65</v>
+      </c>
+      <c t="s">
+        <v>54</v>
+      </c>
+      <c t="s">
+        <v>33</v>
+      </c>
+      <c t="s">
+        <v>31</v>
+      </c>
+      <c t="s">
+        <v>58</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>67</v>
+      </c>
+      <c t="s">
+        <v>34</v>
+      </c>
+      <c t="s">
+        <v>35</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>71</v>
+      </c>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c t="s">
+        <v>1</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>42</v>
+      </c>
+      <c t="s">
+        <v>59</v>
+      </c>
+      <c t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>61</v>
+      </c>
+      <c s="1" t="s">
+        <v>62</v>
+      </c>
+      <c s="1" t="s">
+        <v>63</v>
+      </c>
+      <c s="1" t="s">
+        <v>50</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>7</v>
+      </c>
+      <c s="1">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>39</v>
+      </c>
+      <c s="1" t="s">
+        <v>66</v>
+      </c>
+      <c s="1">
+        <v>147934093</v>
+      </c>
+      <c s="1" t="s">
+        <v>20</v>
+      </c>
+      <c s="1">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
+        <v>40</v>
+      </c>
+      <c s="5" t="s">
+        <v>68</v>
+      </c>
+      <c s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row>
-      <c s="4" t="s">
-        <v>3</v>
-      </c>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="2"/>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1"/>
+      <c s="4"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.34375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.02734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.1484375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="22.78125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1484375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
-        <v>75</v>
-      </c>
-      <c t="s">
-        <v>43</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>44</v>
-      </c>
-      <c t="s">
-        <v>49</v>
-      </c>
-      <c t="s">
-        <v>32</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>55</v>
-      </c>
-      <c t="s">
-        <v>1</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row s="2" customFormat="1">
-      <c s="3" t="s">
-        <v>72</v>
-      </c>
-      <c s="3" t="s">
-        <v>76</v>
-      </c>
-      <c s="3" t="s">
-        <v>16</v>
-      </c>
-      <c s="3" t="s">
-        <v>37</v>
-      </c>
-      <c s="3" t="s">
-        <v>73</v>
-      </c>
-      <c s="3" t="s">
-        <v>8</v>
-      </c>
-      <c s="3">
-        <v>12</v>
-      </c>
-      <c s="3" t="s">
-        <v>14</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>